--- a/Check.xlsx
+++ b/Check.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -20,16 +20,31 @@
     <t>Проверка</t>
   </si>
   <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
     <t>Запуск приложения на симуляторе</t>
   </si>
   <si>
     <t>Запуск приложения через основное меню телефона</t>
   </si>
   <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>Запуск приложения через поисковое поле меню телефона</t>
   </si>
   <si>
     <t>Отображение текста с цитатой</t>
+  </si>
+  <si>
+    <t>Низкий</t>
   </si>
   <si>
     <t>Отображение загрузочной анимации</t>
@@ -54,6 +69,9 @@
     <t>Отображение текста "Авторизация"</t>
   </si>
   <si>
+    <t>Средний</t>
+  </si>
+  <si>
     <t>Раздел "Главная"</t>
   </si>
   <si>
@@ -102,7 +120,7 @@
     <t>Переход через кнопку "Меню" в раздел "Новости"</t>
   </si>
   <si>
-    <t>Отображение теста "Новости"</t>
+    <t>Отображение текста "Новости"</t>
   </si>
   <si>
     <t>Активность кнопки сортировки новостей</t>
@@ -194,6 +212,9 @@
     <t>Работа переключателя "Активна"</t>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t>Работа кнопки "Сохранить"</t>
   </si>
   <si>
@@ -206,6 +227,48 @@
     <t>Работа кнопки "ОК" модального окна</t>
   </si>
   <si>
+    <t>Бейдж "Панели управления" с иконкой категории</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с текстом категории</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с текстом "Дата публикации"</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с датой публикации</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с текстом "Дата создания"</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с датой создания</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с текстом "Автор"</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с ФИО автора</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с иконкой активности</t>
+  </si>
+  <si>
+    <t>Бейдж "Панели управления" с текстом "Активен/Не активен"</t>
+  </si>
+  <si>
+    <t>Работа кнопки удаления "Корзина"</t>
+  </si>
+  <si>
+    <t>Модальное окно с текстом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работа кнопки раскрытия/сокрытия описания </t>
+  </si>
+  <si>
+    <t>Работа кнопки "Редактирование новости"</t>
+  </si>
+  <si>
     <t>Раздел "О приложении"</t>
   </si>
   <si>
@@ -237,9 +300,6 @@
   </si>
   <si>
     <t>Работа раскрытия/сокрытия пояснительной записки при нажатии в рамках границы цитаты</t>
-  </si>
-  <si>
-    <t>Приоритет</t>
   </si>
 </sst>
 </file>
@@ -285,6 +345,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB3D0EB"/>
         <bgColor rgb="FFB3D0EB"/>
       </patternFill>
@@ -293,18 +365,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -382,40 +442,49 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -423,6 +492,12 @@
     </xf>
     <xf borderId="2" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -663,513 +738,1197 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8"/>
+      <c r="B26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8"/>
+      <c r="B33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8"/>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8"/>
+      <c r="B46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8"/>
+      <c r="B48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8"/>
+      <c r="B49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8"/>
+      <c r="B50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8"/>
+      <c r="B51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8"/>
+      <c r="B52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8"/>
+      <c r="B53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8"/>
+      <c r="B54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8"/>
+      <c r="B55" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8"/>
+      <c r="B56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8"/>
+      <c r="B58" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8"/>
+      <c r="B59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8"/>
+      <c r="B60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8"/>
+      <c r="B62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="8"/>
+      <c r="B63" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8"/>
+      <c r="B64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8"/>
+      <c r="B65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8"/>
+      <c r="B66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8"/>
+      <c r="B67" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8"/>
+      <c r="B68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="8"/>
+      <c r="B69" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8"/>
+      <c r="B70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8"/>
+      <c r="B71" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8"/>
+      <c r="B72" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8"/>
+      <c r="B73" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8"/>
+      <c r="B74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="8"/>
+      <c r="B75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="8"/>
+      <c r="B76" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8"/>
+      <c r="B77" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8"/>
+      <c r="B78" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="8"/>
+      <c r="B79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8"/>
+      <c r="B80" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="8"/>
+      <c r="B81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8"/>
+      <c r="B82" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8"/>
+      <c r="B83" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8"/>
+      <c r="B84" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="8"/>
+      <c r="B85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8"/>
+      <c r="B86" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8"/>
+      <c r="B87" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="10"/>
+      <c r="B88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8"/>
+      <c r="B90" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8"/>
+      <c r="B91" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8"/>
+      <c r="B92" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8"/>
+      <c r="B93" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10"/>
+      <c r="B94" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="5"/>
-      <c r="B68" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="5"/>
-      <c r="B70" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5"/>
-      <c r="B71" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="7"/>
-      <c r="B72" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="5"/>
-      <c r="B75" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="7"/>
-      <c r="B78" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="5"/>
-      <c r="B80" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="7"/>
-      <c r="B82" s="4" t="s">
-        <v>70</v>
+      <c r="C94" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8"/>
+      <c r="B96" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="8"/>
+      <c r="B97" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10"/>
+      <c r="B98" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A23:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A82"/>
     <mergeCell ref="A10:A22"/>
+    <mergeCell ref="A23:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A98"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1191,115 +1950,115 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>71</v>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
